--- a/1-Lesson-Plans/02-GRC/2/Activities/02_Risk_Analysis/Unsolved/RiskTemplate.xlsx
+++ b/1-Lesson-Plans/02-GRC/2/Activities/02_Risk_Analysis/Unsolved/RiskTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Assessment Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -1335,7 +1335,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1400,7 +1400,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1426,119 +1425,125 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Heat Map'!$W$4:$W$18</c:f>
+              <c:f>'Heat Map'!$W$4:$W$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Heat Map'!$X$4:$X$18</c:f>
+              <c:f>'Heat Map'!$X$4:$X$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65118852"/>
-        <c:axId val="98417252"/>
+        <c:axId val="77877209"/>
+        <c:axId val="81454447"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65118852"/>
+        <c:axId val="77877209"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,12 +1609,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98417252"/>
+        <c:crossAx val="81454447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98417252"/>
+        <c:axId val="81454447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1690,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65118852"/>
+        <c:crossAx val="77877209"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1738,7 +1743,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
+      <xdr:colOff>227520</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
@@ -1749,8 +1754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83880" y="9705600"/>
-          <a:ext cx="4655520" cy="875160"/>
+          <a:off x="83880" y="9725400"/>
+          <a:ext cx="4650840" cy="874800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1802,9 +1807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>608400</xdr:colOff>
+      <xdr:colOff>608040</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1812,8 +1817,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1679760" y="0"/>
-        <a:ext cx="9885240" cy="5838840"/>
+        <a:off x="1678680" y="0"/>
+        <a:ext cx="9875160" cy="5838480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1827,19 +1832,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="10.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="10.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.71"/>
@@ -1850,7 +1855,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="2" width="8.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,22 +1893,26 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="F2" s="12" t="n">
         <f aca="false">E2*D2</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" s="12" t="str">
         <f aca="false">+D2&amp;E2</f>
-        <v/>
+        <v>1010</v>
       </c>
       <c r="H2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="14" t="e">
+      <c r="I2" s="14" t="n">
         <f aca="false">VLOOKUP(D2,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,22 +1921,26 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="F3" s="12" t="n">
         <f aca="false">E3*D3</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G3" s="12" t="str">
         <f aca="false">+D3&amp;E3</f>
-        <v/>
+        <v>1020</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="16" t="e">
+      <c r="I3" s="16" t="n">
         <f aca="false">VLOOKUP(D3,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,22 +1949,26 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="F4" s="12" t="n">
         <f aca="false">E4*D4</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G4" s="12" t="str">
         <f aca="false">+D4&amp;E4</f>
-        <v/>
+        <v>1030</v>
       </c>
       <c r="H4" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="I4" s="16" t="e">
+      <c r="I4" s="16" t="n">
         <f aca="false">VLOOKUP(D4,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,310 +1977,362 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="F5" s="12" t="n">
         <f aca="false">E5*D5</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" s="12" t="str">
         <f aca="false">+D5&amp;E5</f>
-        <v/>
+        <v>1040</v>
       </c>
       <c r="H5" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="16" t="e">
+      <c r="I5" s="16" t="n">
         <f aca="false">VLOOKUP(D5,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="F6" s="12" t="n">
         <f aca="false">E6*D6</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G6" s="12" t="str">
         <f aca="false">+D6&amp;E6</f>
-        <v/>
+        <v>2010</v>
       </c>
       <c r="H6" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="16" t="e">
+      <c r="I6" s="16" t="n">
         <f aca="false">VLOOKUP(D6,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="F7" s="12" t="n">
         <f aca="false">E7*D7</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G7" s="12" t="str">
         <f aca="false">+D7&amp;E7</f>
-        <v/>
+        <v>2020</v>
       </c>
       <c r="H7" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="16" t="e">
+      <c r="I7" s="16" t="n">
         <f aca="false">VLOOKUP(D7,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="F8" s="12" t="n">
         <f aca="false">E8*D8</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G8" s="12" t="str">
         <f aca="false">+D8&amp;E8</f>
-        <v/>
+        <v>2030</v>
       </c>
       <c r="H8" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="I8" s="16" t="e">
+      <c r="I8" s="16" t="n">
         <f aca="false">VLOOKUP(D8,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="F9" s="12" t="n">
         <f aca="false">E9*D9</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G9" s="12" t="str">
         <f aca="false">+D9&amp;E9</f>
-        <v/>
+        <v>2040</v>
       </c>
       <c r="H9" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="I9" s="16" t="e">
+      <c r="I9" s="16" t="n">
         <f aca="false">VLOOKUP(D9,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="F10" s="12" t="n">
         <f aca="false">E10*D10</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G10" s="12" t="str">
         <f aca="false">+D10&amp;E10</f>
-        <v/>
+        <v>3010</v>
       </c>
       <c r="H10" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="I10" s="16" t="e">
+      <c r="I10" s="16" t="n">
         <f aca="false">VLOOKUP(D10,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="F11" s="12" t="n">
         <f aca="false">E11*D11</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G11" s="12" t="str">
         <f aca="false">+D11&amp;E11</f>
-        <v/>
+        <v>3020</v>
       </c>
       <c r="H11" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="I11" s="16" t="e">
+      <c r="I11" s="16" t="n">
         <f aca="false">VLOOKUP(D11,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="F12" s="12" t="n">
         <f aca="false">E12*D12</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G12" s="12" t="str">
         <f aca="false">+D12&amp;E12</f>
-        <v/>
+        <v>3030</v>
       </c>
       <c r="H12" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="I12" s="16" t="e">
+      <c r="I12" s="16" t="n">
         <f aca="false">VLOOKUP(D12,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="F13" s="12" t="n">
         <f aca="false">E13*D13</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G13" s="12" t="str">
         <f aca="false">+D13&amp;E13</f>
-        <v/>
+        <v>3040</v>
       </c>
       <c r="H13" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="I13" s="16" t="e">
+      <c r="I13" s="16" t="n">
         <f aca="false">VLOOKUP(D13,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="F14" s="12" t="n">
         <f aca="false">E14*D14</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G14" s="12" t="str">
         <f aca="false">+D14&amp;E14</f>
-        <v/>
+        <v>4010</v>
       </c>
       <c r="H14" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="I14" s="16" t="e">
+      <c r="I14" s="16" t="n">
         <f aca="false">VLOOKUP(D14,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="F15" s="12" t="n">
         <f aca="false">E15*D15</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G15" s="12" t="str">
         <f aca="false">+D15&amp;E15</f>
-        <v/>
+        <v>4020</v>
       </c>
       <c r="H15" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="I15" s="16" t="e">
+      <c r="I15" s="16" t="n">
         <f aca="false">VLOOKUP(D15,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="F16" s="12" t="n">
         <f aca="false">E16*D16</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G16" s="12" t="str">
         <f aca="false">+D16&amp;E16</f>
-        <v/>
+        <v>4030</v>
       </c>
       <c r="H16" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="I16" s="16" t="e">
+      <c r="I16" s="16" t="n">
         <f aca="false">VLOOKUP(D16,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="F17" s="12" t="n">
         <f aca="false">E17*D17</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G17" s="12" t="str">
         <f aca="false">+D17&amp;E17</f>
-        <v/>
+        <v>4040</v>
       </c>
       <c r="H17" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="I17" s="16" t="e">
+      <c r="I17" s="16" t="n">
         <f aca="false">VLOOKUP(D17,'Risk Ratings'!$B$6:$I$9,8,0)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,7 +3182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -3123,7 +3192,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="1" min="1" style="22" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="13.57"/>
@@ -3131,7 +3200,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="23" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="23" width="2.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="23" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="23" width="9.13"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,19 +3246,19 @@
       </c>
       <c r="E4" s="37" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "1010")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="38" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "2010")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="39" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "3010")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="40" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "4010")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3205,19 +3274,19 @@
       </c>
       <c r="E5" s="38" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "1020")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="39" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "2020")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="41" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "3020")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="42" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "4020")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3233,19 +3302,19 @@
       </c>
       <c r="E6" s="38" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "1030")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="43" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "2030")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="44" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "3030")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="45" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "4030")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3261,19 +3330,19 @@
       </c>
       <c r="E7" s="43" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "1040")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="48" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "2040")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="49" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "3040")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="50" t="n">
         <f aca="false">COUNTIF('Risk Assessment Data'!$G$2:$G$105, "4040")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,17 +3383,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:EB75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V19" activeCellId="0" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="10.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="10.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="1" style="53" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="53" width="3.98"/>
@@ -3334,13 +3403,13 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="25" style="53" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="53" width="4.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="130" min="28" style="53" width="2.14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="132" min="131" style="53" width="2.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="231" min="133" style="53" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="132" min="131" style="53" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="231" min="133" style="53" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="245" min="232" style="53" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="246" min="246" style="53" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="247" min="247" style="53" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="248" min="248" style="53" width="11.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="249" style="53" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="249" style="53" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,11 +3934,11 @@
       </c>
       <c r="W4" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X4" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="61"/>
       <c r="AB4" s="62"/>
@@ -4004,11 +4073,11 @@
       </c>
       <c r="W5" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E3</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X5" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y5" s="64"/>
       <c r="AB5" s="65"/>
@@ -4143,11 +4212,11 @@
       </c>
       <c r="W6" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E4</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X6" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D4</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y6" s="64"/>
       <c r="AB6" s="65"/>
@@ -4282,11 +4351,11 @@
       </c>
       <c r="W7" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E5</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X7" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D5</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y7" s="64"/>
       <c r="AB7" s="65"/>
@@ -4421,11 +4490,11 @@
       </c>
       <c r="W8" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X8" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D6</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="64"/>
       <c r="AB8" s="65"/>
@@ -4560,11 +4629,11 @@
       </c>
       <c r="W9" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E7</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X9" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D7</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="67"/>
       <c r="AB9" s="65"/>
@@ -4699,11 +4768,11 @@
       </c>
       <c r="W10" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E8</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X10" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D8</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y10" s="67"/>
       <c r="AB10" s="65"/>
@@ -4838,11 +4907,11 @@
       </c>
       <c r="W11" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E9</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X11" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="67"/>
       <c r="AB11" s="65"/>
@@ -4977,11 +5046,11 @@
       </c>
       <c r="W12" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X12" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D10</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y12" s="67"/>
       <c r="AB12" s="65"/>
@@ -5116,11 +5185,11 @@
       </c>
       <c r="W13" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E11</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X13" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D11</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y13" s="68"/>
       <c r="AB13" s="69"/>
@@ -5255,11 +5324,11 @@
       </c>
       <c r="W14" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E12</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X14" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D12</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y14" s="67"/>
       <c r="AB14" s="65"/>
@@ -5394,11 +5463,11 @@
       </c>
       <c r="W15" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E13</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X15" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D13</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y15" s="67"/>
       <c r="AB15" s="65"/>
@@ -5533,11 +5602,11 @@
       </c>
       <c r="W16" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E14</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X16" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D14</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y16" s="67"/>
       <c r="AB16" s="65"/>
@@ -5672,11 +5741,11 @@
       </c>
       <c r="W17" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E15</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X17" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D15</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y17" s="68"/>
       <c r="AB17" s="69"/>
@@ -5811,11 +5880,11 @@
       </c>
       <c r="W18" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!E16</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X18" s="60" t="n">
         <f aca="false">'Risk Assessment Data'!D16</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y18" s="67"/>
       <c r="AB18" s="65"/>
@@ -5924,7 +5993,7 @@
       <c r="EA18" s="65"/>
       <c r="EB18" s="66"/>
     </row>
-    <row r="19" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="54"/>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -5944,9 +6013,18 @@
       <c r="Q19" s="54"/>
       <c r="R19" s="54"/>
       <c r="S19" s="54"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
+      <c r="V19" s="59" t="str">
+        <f aca="false">'Risk Assessment Data'!A17</f>
+        <v>R16</v>
+      </c>
+      <c r="W19" s="60" t="n">
+        <f aca="false">'Risk Assessment Data'!E17</f>
+        <v>40</v>
+      </c>
+      <c r="X19" s="60" t="n">
+        <f aca="false">'Risk Assessment Data'!D17</f>
+        <v>40</v>
+      </c>
       <c r="Y19" s="67"/>
       <c r="AB19" s="65"/>
       <c r="AC19" s="65"/>
@@ -17920,7 +17998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -17930,9 +18008,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="85" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="85" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="86" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="87" width="63.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="86" width="31.69"/>
@@ -17940,39 +18018,39 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="251" min="6" style="86" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="252" min="252" style="86" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="253" min="253" style="86" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="254" style="86" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="254" style="86" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="255" style="86" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="256" style="86" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="257" style="86" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="257" style="86" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="258" min="258" style="86" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="259" min="259" style="86" width="57.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="260" min="260" style="86" width="36.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="507" min="261" style="86" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="508" min="508" style="86" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="509" min="509" style="86" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="510" min="510" style="86" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="510" min="510" style="86" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="511" min="511" style="86" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="512" min="512" style="86" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="513" min="513" style="86" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="513" min="513" style="86" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="514" min="514" style="86" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="515" min="515" style="86" width="57.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="516" min="516" style="86" width="36.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="763" min="517" style="86" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="764" min="764" style="86" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="765" min="765" style="86" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="766" min="766" style="86" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="766" min="766" style="86" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="767" min="767" style="86" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="768" min="768" style="86" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="769" min="769" style="86" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="769" min="769" style="86" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="770" min="770" style="86" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="771" min="771" style="86" width="57.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="772" min="772" style="86" width="36.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="773" style="86" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="1020" style="86" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1021" style="86" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1022" style="86" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1022" style="86" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1023" style="86" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="86" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="86" width="30.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
